--- a/docs/odh/shr-core-CollectionTime-model.xlsx
+++ b/docs/odh/shr-core-CollectionTime-model.xlsx
@@ -144,7 +144,7 @@
   </si>
   <si>
     <t>dateTime {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
   </si>
   <si>
     <t>DateTime or TimePeriod representing when the sample was obtained, as a specific time or time period.</t>
@@ -296,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
